--- a/contracts-list.xlsx
+++ b/contracts-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\word-entry-form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\01_Projects\79_Word_Bulk_Generator\YOUTUBE_UPLOAD_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C717EF6-DF05-4CB3-9151-8139D4707849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CCFE9-1BAB-4AC0-B266-56E703807344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{16CCE7C8-6E76-4325-9359-02E8A17F9473}"/>
   </bookViews>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B022B0-9D68-40FA-826F-8BB5F911FB15}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,9 +1214,10 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,7 +1258,7 @@
         <v>288</v>
       </c>
       <c r="D2" s="8">
-        <f>C2*0.2</f>
+        <f>ROUND(C2*0.2,2)</f>
         <v>57.6</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1268,11 +1269,11 @@
       </c>
       <c r="G2" s="9">
         <f ca="1">TODAY()</f>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H2" s="10">
         <f ca="1">G2+7</f>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1286,8 +1287,8 @@
         <v>353</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D66" si="0">C3*0.2</f>
-        <v>70.600000000000009</v>
+        <f t="shared" ref="D3:D66" si="0">ROUND(C3*0.2,2)</f>
+        <v>70.599999999999994</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>199</v>
@@ -1297,11 +1298,11 @@
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" ca="1" si="1">TODAY()</f>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H66" ca="1" si="2">G3+7</f>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1326,11 +1327,11 @@
       </c>
       <c r="G4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1355,11 +1356,11 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1384,11 +1385,11 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1413,11 +1414,11 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,11 +1443,11 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1461,7 +1462,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>58.400000000000006</v>
+        <v>58.4</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>199</v>
@@ -1471,11 +1472,11 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,11 +1501,11 @@
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1529,11 +1530,11 @@
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1558,11 +1559,11 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1587,11 +1588,11 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1616,11 +1617,11 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1645,11 +1646,11 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1674,11 +1675,11 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1693,7 +1694,7 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>78.800000000000011</v>
+        <v>78.8</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>199</v>
@@ -1703,11 +1704,11 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,7 +1723,7 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>62.400000000000006</v>
+        <v>62.4</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>199</v>
@@ -1732,11 +1733,11 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1761,11 +1762,11 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1790,11 +1791,11 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1819,11 +1820,11 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1838,7 +1839,7 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>60.400000000000006</v>
+        <v>60.4</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>199</v>
@@ -1848,11 +1849,11 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1877,11 +1878,11 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,11 +1907,11 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1925,7 +1926,7 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>92.800000000000011</v>
+        <v>92.8</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>199</v>
@@ -1935,11 +1936,11 @@
       </c>
       <c r="G25" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1964,11 +1965,11 @@
       </c>
       <c r="G26" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1993,11 +1994,11 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2022,11 +2023,11 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2051,11 +2052,11 @@
       </c>
       <c r="G29" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2070,7 +2071,7 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" si="0"/>
-        <v>79.600000000000009</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>199</v>
@@ -2080,11 +2081,11 @@
       </c>
       <c r="G30" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2099,7 +2100,7 @@
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
-        <v>69.600000000000009</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>199</v>
@@ -2109,11 +2110,11 @@
       </c>
       <c r="G31" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2138,11 +2139,11 @@
       </c>
       <c r="G32" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2157,7 +2158,7 @@
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
-        <v>99.800000000000011</v>
+        <v>99.8</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>199</v>
@@ -2167,11 +2168,11 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2186,7 +2187,7 @@
       </c>
       <c r="D34" s="8">
         <f t="shared" si="0"/>
-        <v>47.800000000000004</v>
+        <v>47.8</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>199</v>
@@ -2196,11 +2197,11 @@
       </c>
       <c r="G34" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2225,11 +2226,11 @@
       </c>
       <c r="G35" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2244,7 +2245,7 @@
       </c>
       <c r="D36" s="8">
         <f t="shared" si="0"/>
-        <v>80.800000000000011</v>
+        <v>80.8</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>199</v>
@@ -2254,11 +2255,11 @@
       </c>
       <c r="G36" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2273,7 +2274,7 @@
       </c>
       <c r="D37" s="8">
         <f t="shared" si="0"/>
-        <v>94.800000000000011</v>
+        <v>94.8</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>199</v>
@@ -2283,11 +2284,11 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2302,7 +2303,7 @@
       </c>
       <c r="D38" s="8">
         <f t="shared" si="0"/>
-        <v>45.800000000000004</v>
+        <v>45.8</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>199</v>
@@ -2312,11 +2313,11 @@
       </c>
       <c r="G38" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2341,11 +2342,11 @@
       </c>
       <c r="G39" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2370,11 +2371,11 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2399,11 +2400,11 @@
       </c>
       <c r="G41" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2418,7 +2419,7 @@
       </c>
       <c r="D42" s="8">
         <f t="shared" si="0"/>
-        <v>96.600000000000009</v>
+        <v>96.6</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>199</v>
@@ -2428,11 +2429,11 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2457,11 +2458,11 @@
       </c>
       <c r="G43" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2476,7 +2477,7 @@
       </c>
       <c r="D44" s="8">
         <f t="shared" si="0"/>
-        <v>67.600000000000009</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>199</v>
@@ -2486,11 +2487,11 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2515,11 +2516,11 @@
       </c>
       <c r="G45" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2534,7 +2535,7 @@
       </c>
       <c r="D46" s="8">
         <f t="shared" si="0"/>
-        <v>86.600000000000009</v>
+        <v>86.6</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>199</v>
@@ -2544,11 +2545,11 @@
       </c>
       <c r="G46" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2573,11 +2574,11 @@
       </c>
       <c r="G47" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2592,7 +2593,7 @@
       </c>
       <c r="D48" s="8">
         <f t="shared" si="0"/>
-        <v>88.600000000000009</v>
+        <v>88.6</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>199</v>
@@ -2602,11 +2603,11 @@
       </c>
       <c r="G48" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2631,11 +2632,11 @@
       </c>
       <c r="G49" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2650,7 +2651,7 @@
       </c>
       <c r="D50" s="8">
         <f t="shared" si="0"/>
-        <v>61.400000000000006</v>
+        <v>61.4</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>199</v>
@@ -2660,11 +2661,11 @@
       </c>
       <c r="G50" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2689,11 +2690,11 @@
       </c>
       <c r="G51" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2708,7 +2709,7 @@
       </c>
       <c r="D52" s="8">
         <f t="shared" si="0"/>
-        <v>52.400000000000006</v>
+        <v>52.4</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>199</v>
@@ -2718,11 +2719,11 @@
       </c>
       <c r="G52" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2747,11 +2748,11 @@
       </c>
       <c r="G53" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2776,11 +2777,11 @@
       </c>
       <c r="G54" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2805,11 +2806,11 @@
       </c>
       <c r="G55" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2834,11 +2835,11 @@
       </c>
       <c r="G56" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2863,11 +2864,11 @@
       </c>
       <c r="G57" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2882,7 +2883,7 @@
       </c>
       <c r="D58" s="8">
         <f t="shared" si="0"/>
-        <v>76.600000000000009</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>199</v>
@@ -2892,11 +2893,11 @@
       </c>
       <c r="G58" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2921,11 +2922,11 @@
       </c>
       <c r="G59" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2950,11 +2951,11 @@
       </c>
       <c r="G60" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2979,11 +2980,11 @@
       </c>
       <c r="G61" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3008,11 +3009,11 @@
       </c>
       <c r="G62" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3027,7 +3028,7 @@
       </c>
       <c r="D63" s="8">
         <f t="shared" si="0"/>
-        <v>80.600000000000009</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>199</v>
@@ -3037,11 +3038,11 @@
       </c>
       <c r="G63" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H63" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3066,11 +3067,11 @@
       </c>
       <c r="G64" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3085,7 +3086,7 @@
       </c>
       <c r="D65" s="8">
         <f t="shared" si="0"/>
-        <v>81.600000000000009</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>199</v>
@@ -3095,11 +3096,11 @@
       </c>
       <c r="G65" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3124,11 +3125,11 @@
       </c>
       <c r="G66" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3142,8 +3143,8 @@
         <v>398</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" ref="D67:D101" si="3">C67*0.2</f>
-        <v>79.600000000000009</v>
+        <f t="shared" ref="D67:D101" si="3">ROUND(C67*0.2,2)</f>
+        <v>79.599999999999994</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>199</v>
@@ -3153,11 +3154,11 @@
       </c>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G101" ca="1" si="4">TODAY()</f>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H67" s="10">
         <f t="shared" ref="H67:H101" ca="1" si="5">G67+7</f>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3182,11 +3183,11 @@
       </c>
       <c r="G68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3201,7 +3202,7 @@
       </c>
       <c r="D69" s="8">
         <f t="shared" si="3"/>
-        <v>95.600000000000009</v>
+        <v>95.6</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>199</v>
@@ -3211,11 +3212,11 @@
       </c>
       <c r="G69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3230,7 +3231,7 @@
       </c>
       <c r="D70" s="8">
         <f t="shared" si="3"/>
-        <v>79.600000000000009</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>199</v>
@@ -3240,11 +3241,11 @@
       </c>
       <c r="G70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3269,11 +3270,11 @@
       </c>
       <c r="G71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3298,11 +3299,11 @@
       </c>
       <c r="G72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3327,11 +3328,11 @@
       </c>
       <c r="G73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3346,7 +3347,7 @@
       </c>
       <c r="D74" s="8">
         <f t="shared" si="3"/>
-        <v>64.600000000000009</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>199</v>
@@ -3356,11 +3357,11 @@
       </c>
       <c r="G74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3385,11 +3386,11 @@
       </c>
       <c r="G75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3414,11 +3415,11 @@
       </c>
       <c r="G76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3433,7 +3434,7 @@
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
-        <v>57.400000000000006</v>
+        <v>57.4</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>199</v>
@@ -3443,11 +3444,11 @@
       </c>
       <c r="G77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3462,7 +3463,7 @@
       </c>
       <c r="D78" s="8">
         <f t="shared" si="3"/>
-        <v>63.800000000000004</v>
+        <v>63.8</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>199</v>
@@ -3472,11 +3473,11 @@
       </c>
       <c r="G78" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3491,7 +3492,7 @@
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
-        <v>42.400000000000006</v>
+        <v>42.4</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>199</v>
@@ -3501,11 +3502,11 @@
       </c>
       <c r="G79" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3530,11 +3531,11 @@
       </c>
       <c r="G80" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3559,11 +3560,11 @@
       </c>
       <c r="G81" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3588,11 +3589,11 @@
       </c>
       <c r="G82" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H82" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3607,7 +3608,7 @@
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
-        <v>59.800000000000004</v>
+        <v>59.8</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>199</v>
@@ -3617,11 +3618,11 @@
       </c>
       <c r="G83" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H83" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3646,11 +3647,11 @@
       </c>
       <c r="G84" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H84" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3675,11 +3676,11 @@
       </c>
       <c r="G85" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H85" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,7 +3695,7 @@
       </c>
       <c r="D86" s="8">
         <f t="shared" si="3"/>
-        <v>46.800000000000004</v>
+        <v>46.8</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>199</v>
@@ -3704,11 +3705,11 @@
       </c>
       <c r="G86" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H86" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3723,7 +3724,7 @@
       </c>
       <c r="D87" s="8">
         <f t="shared" si="3"/>
-        <v>92.600000000000009</v>
+        <v>92.6</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>199</v>
@@ -3733,11 +3734,11 @@
       </c>
       <c r="G87" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H87" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3752,7 +3753,7 @@
       </c>
       <c r="D88" s="8">
         <f t="shared" si="3"/>
-        <v>50.800000000000004</v>
+        <v>50.8</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>199</v>
@@ -3762,11 +3763,11 @@
       </c>
       <c r="G88" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H88" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3791,11 +3792,11 @@
       </c>
       <c r="G89" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H89" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3820,11 +3821,11 @@
       </c>
       <c r="G90" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H90" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3849,11 +3850,11 @@
       </c>
       <c r="G91" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H91" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3878,11 +3879,11 @@
       </c>
       <c r="G92" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3907,11 +3908,11 @@
       </c>
       <c r="G93" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H93" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3936,11 +3937,11 @@
       </c>
       <c r="G94" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H94" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3965,11 +3966,11 @@
       </c>
       <c r="G95" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H95" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3984,7 +3985,7 @@
       </c>
       <c r="D96" s="8">
         <f t="shared" si="3"/>
-        <v>54.800000000000004</v>
+        <v>54.8</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>199</v>
@@ -3994,11 +3995,11 @@
       </c>
       <c r="G96" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H96" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4013,7 +4014,7 @@
       </c>
       <c r="D97" s="8">
         <f t="shared" si="3"/>
-        <v>48.400000000000006</v>
+        <v>48.4</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>199</v>
@@ -4023,11 +4024,11 @@
       </c>
       <c r="G97" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H97" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4052,11 +4053,11 @@
       </c>
       <c r="G98" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H98" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4071,7 +4072,7 @@
       </c>
       <c r="D99" s="8">
         <f t="shared" si="3"/>
-        <v>76.800000000000011</v>
+        <v>76.8</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>199</v>
@@ -4081,11 +4082,11 @@
       </c>
       <c r="G99" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H99" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4100,7 +4101,7 @@
       </c>
       <c r="D100" s="8">
         <f t="shared" si="3"/>
-        <v>84.800000000000011</v>
+        <v>84.8</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>199</v>
@@ -4110,11 +4111,11 @@
       </c>
       <c r="G100" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H100" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4127,7 +4128,7 @@
       <c r="C101" s="5">
         <v>276</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="8">
         <f t="shared" si="3"/>
         <v>55.2</v>
       </c>
@@ -4139,11 +4140,11 @@
       </c>
       <c r="G101" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44603</v>
       </c>
       <c r="H101" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>44606</v>
+        <v>44610</v>
       </c>
     </row>
   </sheetData>
